--- a/custom/tpl/AP-2.xlsx
+++ b/custom/tpl/AP-2.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\smep19\custom\tpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EDA4CE-CCDD-46C2-996E-5A7A5DC97BA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222078BA-ABD0-433D-B42A-BDCAAA39DAF1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6850" xr2:uid="{E96A7F12-62F6-4E55-8F93-54779ADDED31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E96A7F12-62F6-4E55-8F93-54779ADDED31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$7:$10</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>PEMERINTAH KABUPATEN PONOROGO</t>
   </si>
@@ -98,13 +101,19 @@
   <si>
     <t>METODE
 PEMILIHAN</t>
+  </si>
+  <si>
+    <t>OPD</t>
+  </si>
+  <si>
+    <t>: BAGIAN ADMINISTRASI PEMBANGUNAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +137,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -215,6 +231,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -233,7 +250,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -531,8 +548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E550F19-B653-4B3E-9296-34FAE14DE9DC}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,7 +637,12 @@
       <c r="M4" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="M6" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +782,7 @@
     <mergeCell ref="M7:M8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="10000" scale="90" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.39370078740157483" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="10000" scale="93" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>